--- a/biology/Zoologie/Ischyropsalis_navarrensis/Ischyropsalis_navarrensis.xlsx
+++ b/biology/Zoologie/Ischyropsalis_navarrensis/Ischyropsalis_navarrensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischyropsalis navarrensis est une espèce d'opilions dyspnois de la famille des Ischyropsalididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Espagne[1]. Elle se rencontre en Navarre et au Pays basque dans des grottes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Espagne. Elle se rencontre en Navarre et au Pays basque dans des grottes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 7,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 7,5 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Roewer en  1950. Elle est placée en synonymie avec Ischyropsalis magdalenae par Martens en 1969[3]. Elle est relevée de synonymie par Prieto en 1990[1].
-Ischyropsalis turki[2], Ischyropsalis nicaea[2] et Ischyropsalis espagnoli[4] ont été placées en synonymie par Prieto en 1990[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Roewer en  1950. Elle est placée en synonymie avec Ischyropsalis magdalenae par Martens en 1969. Elle est relevée de synonymie par Prieto en 1990.
+Ischyropsalis turki, Ischyropsalis nicaea et Ischyropsalis espagnoli ont été placées en synonymie par Prieto en 1990.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de navarr[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la Navarre.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Roewer, 1950 : « Über Ischyropsalididae und Trogulidae. Weitere Weberknechte XV. » Senckenbergiana, vol. 31, no 1/2, p. 11–56.</t>
         </is>
